--- a/アカウント登録_テストケース.xlsx
+++ b/アカウント登録_テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\workspace-haraguchi\Java\Registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7AF6FB-FBE3-4065-B5B8-8D3660658EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05CF90-0AA9-4AE9-AC7F-204CE144DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>事前条件</t>
   </si>
   <si>
-    <t>入力値</t>
-  </si>
-  <si>
     <t>手順</t>
   </si>
   <si>
@@ -541,6 +538,13 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値無いほうがいい</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -937,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,16 +973,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -986,25 +990,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1013,25 +1017,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1040,25 +1044,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1067,25 +1071,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1094,25 +1098,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1121,25 +1125,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1148,25 +1152,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1175,25 +1179,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1202,25 +1206,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1229,25 +1233,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1256,25 +1260,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1283,25 +1287,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1310,25 +1314,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1337,25 +1341,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1364,25 +1368,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1391,25 +1395,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4">
         <v>1234</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1418,25 +1422,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1445,25 +1449,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1472,25 +1476,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1499,25 +1503,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1526,25 +1530,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1553,25 +1557,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1580,25 +1584,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="5">
         <v>1234567</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1607,25 +1611,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1634,25 +1638,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1661,25 +1665,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1688,23 +1692,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1713,23 +1717,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -1738,23 +1742,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1763,23 +1767,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1788,23 +1792,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -1813,23 +1817,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -1838,23 +1842,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1863,23 +1867,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -1888,25 +1892,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -1915,25 +1919,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -1942,25 +1946,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -1969,25 +1973,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -1996,25 +2000,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2023,25 +2027,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2050,25 +2054,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2077,25 +2081,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -2104,25 +2108,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -2131,25 +2135,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -2158,25 +2162,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -2185,25 +2189,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -2212,25 +2216,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -2239,25 +2243,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="I49" s="2"/>
     </row>
